--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>5c4709b4-6b84-4c1d-93a3-9eff70a7a6f9</t>
+    <t>77dd753c-d2d1-4f33-8709-e8e03c35dbe4</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>77dd753c-d2d1-4f33-8709-e8e03c35dbe4</t>
+    <t>1b58d274-7fd9-449d-82f6-e97bf577bb97</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>1b58d274-7fd9-449d-82f6-e97bf577bb97</t>
+    <t>cf840a1f-5ba3-4c02-b92e-1a6bb9c3823d</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>cf840a1f-5ba3-4c02-b92e-1a6bb9c3823d</t>
+    <t>86b83024-884b-4971-973d-39f71e5a36a3</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>86b83024-884b-4971-973d-39f71e5a36a3</t>
+    <t>b57ca39c-25b0-4011-89f1-fd51db45b62a</t>
   </si>
   <si>
     <t>ABAETÉ</t>

--- a/storage/app/xlsx/seed_cidades_mg.xlsx
+++ b/storage/app/xlsx/seed_cidades_mg.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>b57ca39c-25b0-4011-89f1-fd51db45b62a</t>
+    <t>6387dc64-b003-4552-ba6f-6c45577a87e9</t>
   </si>
   <si>
     <t>ABAETÉ</t>
